--- a/Stock Selection/tickers_update.xlsx
+++ b/Stock Selection/tickers_update.xlsx
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>INGR</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>SPY</t>
         </is>
       </c>
     </row>
@@ -464,346 +464,346 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BCS</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>SDIA.L</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>JPY=X</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>AGIO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>YUM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>MSFT</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CIB</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>VHYD.L</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>AEP</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>NEE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SMFG</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GC=F</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BOTZ.L</t>
+          <t>^VIX</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BBVA.MC</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AGIO</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>CIB</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DAR</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VWO</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>WMT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MAXN</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SHELL.AS</t>
+          <t>YPF</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JPY=X</t>
+          <t>MAXN</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>US30</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>DAR</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>GILD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>AAPL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>SMFG</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>^VIX</t>
+          <t>MO</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>BOTZ.L</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>US30</t>
+          <t>BBVA.MC</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>NVDA</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YPF</t>
+          <t>BATT.AS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>ING</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>MXN=X</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>SHELL.AS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>GC=F</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>VWO</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INGR</t>
+          <t>FLOA.L</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BATT.AS</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ASML</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>APA</t>
         </is>
       </c>
     </row>

--- a/Stock Selection/tickers_update.xlsx
+++ b/Stock Selection/tickers_update.xlsx
@@ -443,374 +443,374 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INGR</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>WMT</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BND</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>NVDA</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>BBVA.MC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>DAR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JPY=X</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AGIO</t>
+          <t>SMFG</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>BOTZ.L</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>SHELL.AS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>MC.PA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>DUK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VWO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>^VIX</t>
+          <t>GC=F</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>MSFT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>NEE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CIB</t>
+          <t>MXN=X</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>AAPL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>BND</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>US30</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YPF</t>
+          <t>^VIX</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>MO</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXN</t>
+          <t>YPF</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>US30</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DAR</t>
+          <t>ING</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>AGIO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>CIB</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SMFG</t>
+          <t>VHYD.L</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>INGR</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BOTZ.L</t>
+          <t>ASML</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BBVA.MC</t>
+          <t>YUM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>SDIA.L</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>AEP</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>TSM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BATT.AS</t>
+          <t>APA</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>JPY=X</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SPY</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SHELL.AS</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GC=F</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VWO</t>
+          <t>FLOA.L</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>MAXN</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>BATT.AS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MC.PA</t>
+          <t>GILD</t>
         </is>
       </c>
     </row>

--- a/Stock Selection/tickers_update.xlsx
+++ b/Stock Selection/tickers_update.xlsx
@@ -443,19 +443,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SQM</t>
+          <t>YPF</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>WMT</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,35 +467,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>SDIA.L</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BBVA.MC</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DAR</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -509,224 +509,224 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>VHYD.L</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BOTZ.L</t>
+          <t>KMB</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>MO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>DAR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SHELL.AS</t>
+          <t>GILD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MC.PA</t>
+          <t>ASML</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>BOTZ.L</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VWO</t>
+          <t>AAPL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GC=F</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>APA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>ING</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>WMT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>SQM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MC.PA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BND</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>INGR</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>US30</t>
+          <t>ACI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>^VIX</t>
+          <t>MAXN</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>CIB</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YPF</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>SHELL.AS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AGIO</t>
+          <t>NEE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CIB</t>
+          <t>FLOA.L</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>MSFT</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INGR</t>
+          <t>YUM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>US30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>VWO</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>^VIX</t>
         </is>
       </c>
     </row>
@@ -740,77 +740,77 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JPY=X</t>
+          <t>SPY</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>BATT.AS</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>JPY=X</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>BBVA.MC</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>BND</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>LEVI</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MAXN</t>
+          <t>AGIO</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>MXN=X</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BATT.AS</t>
+          <t>GC=F</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>AEP</t>
         </is>
       </c>
     </row>
